--- a/SALT/NaCl-UCl3.xlsx
+++ b/SALT/NaCl-UCl3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC3084B-ED4C-C74B-B0A8-D985C235B2D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D7765-29CD-6A4A-BB19-B6A0A2FE7A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="7560" windowWidth="28560" windowHeight="16440" xr2:uid="{E495CD70-E4E6-FC4E-AC78-5AE6C84CD047}"/>
+    <workbookView xWindow="5240" yWindow="2140" windowWidth="28560" windowHeight="16440" xr2:uid="{E495CD70-E4E6-FC4E-AC78-5AE6C84CD047}"/>
   </bookViews>
   <sheets>
     <sheet name="NaCl" sheetId="4" r:id="rId1"/>
@@ -24,10 +24,19 @@
     <sheet name="NaCl-33UCl3_old" sheetId="2" r:id="rId9"/>
     <sheet name="summary" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26931,7 +26940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E72593-4C4E-074F-AF12-FA50A151F183}">
   <dimension ref="B1:BO58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
@@ -30662,8 +30671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3220A84A-6C55-4A4C-9969-45FAD5D048CF}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37968,7 +37977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011EA6B4-97E6-2742-B81D-F0D5871F16F8}">
   <dimension ref="B2:CM87"/>
   <sheetViews>
-    <sheetView topLeftCell="BL30" workbookViewId="0">
+    <sheetView topLeftCell="BL1" workbookViewId="0">
       <selection activeCell="BY45" sqref="BY45"/>
     </sheetView>
   </sheetViews>
